--- a/일정/진격전_일정관리.xlsx
+++ b/일정/진격전_일정관리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warde\Documents\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kby\Advance\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>임성오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,15 +99,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발 준비 기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>논의된 일정 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 전투 시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 유닛 생성 시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 유닛 생성 시스템 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,15 +399,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,10 +411,37 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,18 +453,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,48 +460,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,41 +487,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -841,485 +824,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG12"/>
+  <dimension ref="B1:AG14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="32" width="4.125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="9" style="6"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="32" width="4.125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="9" style="3"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="37"/>
+      <c r="S3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="18">
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="8">
         <v>7.31</v>
       </c>
     </row>
     <row r="4" spans="2:33" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="29"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="25"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="10"/>
     </row>
     <row r="5" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="32"/>
+      <c r="B5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="12"/>
     </row>
     <row r="6" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="32"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="12"/>
     </row>
     <row r="7" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="32"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="12"/>
     </row>
     <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="31"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="32"/>
+      <c r="B8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="12"/>
     </row>
     <row r="9" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="32"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="12"/>
     </row>
     <row r="10" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="31"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="32"/>
+      <c r="B10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="12"/>
     </row>
     <row r="11" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="12" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="34"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="2:33" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
+    <row r="12" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="12"/>
+    </row>
+    <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="14"/>
+    </row>
+    <row r="14" spans="2:33" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="L11:P11"/>
+  <mergeCells count="35">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="AE4:AF11"/>
-    <mergeCell ref="X4:Y11"/>
-    <mergeCell ref="Q4:R11"/>
-    <mergeCell ref="J4:K11"/>
-    <mergeCell ref="C4:D11"/>
+    <mergeCell ref="AE4:AF13"/>
+    <mergeCell ref="X4:Y13"/>
+    <mergeCell ref="Q4:R13"/>
+    <mergeCell ref="J4:K13"/>
+    <mergeCell ref="C4:D13"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E8:I8"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="E11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정/진격전_일정관리.xlsx
+++ b/일정/진격전_일정관리.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kby\Advance\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\NGame\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="7월" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김광현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주
 말</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +116,10 @@
   </si>
   <si>
     <t>랜덤 유닛 생성 시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권광현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,22 +435,28 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,34 +486,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,9 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -841,469 +839,469 @@
   <sheetData>
     <row r="1" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="36" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="33" t="s">
+      <c r="R3" s="17"/>
+      <c r="S3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="36" t="s">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="33" t="s">
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="36" t="s">
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="37"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="8">
         <v>7.31</v>
       </c>
     </row>
     <row r="4" spans="2:33" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
-      <c r="C4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="25"/>
+      <c r="J4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="27"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="25"/>
+      <c r="Q4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="27"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
-      <c r="X4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="25"/>
+      <c r="X4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="27"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="25"/>
+      <c r="AE4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="27"/>
       <c r="AG4" s="10"/>
     </row>
     <row r="5" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="16" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="27"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="29"/>
       <c r="AG5" s="12"/>
     </row>
     <row r="6" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="27"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="29"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="27"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="29"/>
       <c r="AG6" s="12"/>
     </row>
     <row r="7" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="29"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="27"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="29"/>
       <c r="AG7" s="12"/>
     </row>
     <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="29"/>
       <c r="AG8" s="12"/>
     </row>
     <row r="9" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="27"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="29"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="27"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="29"/>
       <c r="AG9" s="12"/>
     </row>
     <row r="10" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="27"/>
+      <c r="B10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="29"/>
       <c r="AG10" s="12"/>
     </row>
     <row r="11" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="27"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="27"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="29"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="27"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="29"/>
       <c r="AG11" s="12"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="27"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="29"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="29"/>
       <c r="AG12" s="12"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="29"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="31"/>
       <c r="AG13" s="14"/>
     </row>
     <row r="14" spans="2:33" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -1342,11 +1340,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="E11:I11"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="AE4:AF13"/>
     <mergeCell ref="X4:Y13"/>
@@ -1363,20 +1370,11 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
